--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="79">
   <si>
     <t>TC</t>
   </si>
@@ -251,12 +256,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,13 +507,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,9 +598,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,6 +650,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -797,22 +842,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -840,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -854,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -875,23 +920,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,7 +962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -938,7 +983,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
@@ -959,7 +1004,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -980,7 +1025,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1046,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1067,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1043,7 +1088,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1064,7 +1109,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1130,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1106,7 +1151,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1127,7 +1172,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
@@ -1148,7 +1193,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -1169,7 +1214,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>39</v>
       </c>
@@ -1190,7 +1235,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
@@ -1211,7 +1256,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>59</v>
       </c>
@@ -1232,7 +1277,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1252,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
@@ -1272,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
@@ -1312,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
@@ -1332,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>57</v>
       </c>
@@ -1352,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -1392,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
@@ -1412,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
@@ -1432,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -1452,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -1472,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
@@ -1498,26 +1543,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1558,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -1593,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>76</v>
       </c>
@@ -1630,7 +1675,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>76</v>
       </c>
@@ -1667,7 +1712,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>76</v>
       </c>
@@ -1704,7 +1749,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>76</v>
       </c>
@@ -1741,7 +1786,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>76</v>
       </c>
@@ -1778,7 +1823,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>76</v>
       </c>
@@ -1815,7 +1860,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>76</v>
       </c>
@@ -1852,7 +1897,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>76</v>
       </c>
@@ -1889,7 +1934,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>76</v>
       </c>
@@ -1926,7 +1971,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>76</v>
       </c>
@@ -1963,7 +2008,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>76</v>
       </c>
@@ -2000,7 +2045,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>76</v>
       </c>
@@ -2037,7 +2082,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>76</v>
       </c>
@@ -2074,7 +2119,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>76</v>
       </c>
@@ -2111,7 +2156,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>76</v>
       </c>
@@ -2148,7 +2193,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>76</v>
       </c>
@@ -2185,7 +2230,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>76</v>
       </c>
@@ -2222,7 +2267,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>76</v>
       </c>
@@ -2259,7 +2304,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>76</v>
       </c>
@@ -2296,7 +2341,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>76</v>
       </c>
@@ -2333,7 +2378,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>76</v>
       </c>
@@ -2370,7 +2415,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>76</v>
       </c>
@@ -2407,7 +2452,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>76</v>
       </c>
@@ -2444,7 +2489,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>76</v>
       </c>
@@ -2481,7 +2526,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
@@ -2518,7 +2563,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>76</v>
       </c>
@@ -2555,7 +2600,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>76</v>
       </c>
@@ -2594,8 +2639,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A29" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3:A29" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -2603,27 +2648,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>60</v>
       </c>
@@ -2664,7 +2709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -2687,7 +2732,7 @@
         <v>69</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>72</v>
@@ -2701,7 +2746,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -264,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,7 +502,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,26 +593,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,23 +628,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -842,22 +803,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -899,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -920,23 +881,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -983,7 +944,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +965,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +986,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1007,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1028,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +1049,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1109,7 +1070,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -1130,7 +1091,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1151,7 +1112,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1133,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
@@ -1193,7 +1154,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -1214,7 +1175,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>39</v>
       </c>
@@ -1235,7 +1196,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
@@ -1256,7 +1217,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>59</v>
       </c>
@@ -1277,7 +1238,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1297,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
@@ -1317,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
@@ -1337,7 +1298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
@@ -1357,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
@@ -1377,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>57</v>
       </c>
@@ -1397,7 +1358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
@@ -1417,7 +1378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -1437,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
@@ -1457,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
@@ -1477,7 +1438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -1497,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -1517,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
@@ -1543,23 +1504,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1603,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -1638,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>76</v>
       </c>
@@ -1749,7 +1710,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>76</v>
       </c>
@@ -1786,7 +1747,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>76</v>
       </c>
@@ -1823,7 +1784,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>76</v>
       </c>
@@ -1860,7 +1821,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>76</v>
       </c>
@@ -1897,7 +1858,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>76</v>
       </c>
@@ -1934,7 +1895,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>76</v>
       </c>
@@ -1971,7 +1932,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>76</v>
       </c>
@@ -2008,7 +1969,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +2006,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>76</v>
       </c>
@@ -2082,7 +2043,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>76</v>
       </c>
@@ -2119,7 +2080,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>76</v>
       </c>
@@ -2156,7 +2117,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>76</v>
       </c>
@@ -2193,7 +2154,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>76</v>
       </c>
@@ -2230,7 +2191,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>76</v>
       </c>
@@ -2267,7 +2228,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>76</v>
       </c>
@@ -2304,7 +2265,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>76</v>
       </c>
@@ -2341,7 +2302,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>76</v>
       </c>
@@ -2378,7 +2339,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>76</v>
       </c>
@@ -2415,7 +2376,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>76</v>
       </c>
@@ -2452,7 +2413,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>76</v>
       </c>
@@ -2489,7 +2450,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>76</v>
       </c>
@@ -2526,7 +2487,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
@@ -2563,7 +2524,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>76</v>
       </c>
@@ -2600,7 +2561,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>76</v>
       </c>
@@ -2639,8 +2600,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3:A29" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A29" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -2648,27 +2609,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>60</v>
       </c>
@@ -2746,7 +2707,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="78">
   <si>
     <t>TC</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
@@ -884,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,15 +1561,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -1587,7 +1584,7 @@
         <v>69</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>70</v>
@@ -1599,15 +1596,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>25</v>
@@ -1622,7 +1619,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>70</v>
@@ -1636,15 +1633,15 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>25</v>
@@ -1659,7 +1656,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>70</v>
@@ -1673,15 +1670,15 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>25</v>
@@ -1696,7 +1693,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>70</v>
@@ -1712,13 +1709,13 @@
     </row>
     <row r="6" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>25</v>
@@ -1733,7 +1730,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>70</v>
@@ -1749,13 +1746,13 @@
     </row>
     <row r="7" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -1770,7 +1767,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>70</v>
@@ -1786,13 +1783,13 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>25</v>
@@ -1807,7 +1804,7 @@
         <v>69</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>70</v>
@@ -1823,13 +1820,13 @@
     </row>
     <row r="9" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>25</v>
@@ -1844,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>70</v>
@@ -1860,13 +1857,13 @@
     </row>
     <row r="10" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>25</v>
@@ -1881,7 +1878,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>70</v>
@@ -1897,13 +1894,13 @@
     </row>
     <row r="11" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>25</v>
@@ -1918,7 +1915,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>70</v>
@@ -1934,13 +1931,13 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -1955,7 +1952,7 @@
         <v>69</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>70</v>
@@ -1971,13 +1968,13 @@
     </row>
     <row r="13" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>25</v>
@@ -1992,7 +1989,7 @@
         <v>69</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>70</v>
@@ -2008,13 +2005,13 @@
     </row>
     <row r="14" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>25</v>
@@ -2029,7 +2026,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>70</v>
@@ -2045,13 +2042,13 @@
     </row>
     <row r="15" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>25</v>
@@ -2066,7 +2063,7 @@
         <v>69</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>70</v>
@@ -2082,13 +2079,13 @@
     </row>
     <row r="16" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>25</v>
@@ -2103,7 +2100,7 @@
         <v>69</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>70</v>
@@ -2119,13 +2116,13 @@
     </row>
     <row r="17" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -2140,7 +2137,7 @@
         <v>69</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>70</v>
@@ -2156,13 +2153,13 @@
     </row>
     <row r="18" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>25</v>
@@ -2177,7 +2174,7 @@
         <v>69</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>70</v>
@@ -2193,13 +2190,13 @@
     </row>
     <row r="19" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>25</v>
@@ -2214,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>70</v>
@@ -2230,13 +2227,13 @@
     </row>
     <row r="20" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>25</v>
@@ -2251,7 +2248,7 @@
         <v>69</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>70</v>
@@ -2267,13 +2264,13 @@
     </row>
     <row r="21" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>25</v>
@@ -2288,7 +2285,7 @@
         <v>69</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>70</v>
@@ -2304,13 +2301,13 @@
     </row>
     <row r="22" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
@@ -2325,7 +2322,7 @@
         <v>69</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>70</v>
@@ -2341,13 +2338,13 @@
     </row>
     <row r="23" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>25</v>
@@ -2362,7 +2359,7 @@
         <v>69</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>70</v>
@@ -2378,13 +2375,13 @@
     </row>
     <row r="24" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>25</v>
@@ -2399,7 +2396,7 @@
         <v>69</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I24" s="25" t="s">
         <v>70</v>
@@ -2415,13 +2412,13 @@
     </row>
     <row r="25" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>25</v>
@@ -2436,7 +2433,7 @@
         <v>69</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>70</v>
@@ -2452,13 +2449,13 @@
     </row>
     <row r="26" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>25</v>
@@ -2473,7 +2470,7 @@
         <v>69</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I26" s="25" t="s">
         <v>70</v>
@@ -2489,13 +2486,13 @@
     </row>
     <row r="27" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
@@ -2510,7 +2507,7 @@
         <v>69</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>70</v>
@@ -2526,13 +2523,13 @@
     </row>
     <row r="28" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>25</v>
@@ -2547,7 +2544,7 @@
         <v>69</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>70</v>
@@ -2563,13 +2560,13 @@
     </row>
     <row r="29" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>25</v>
@@ -2584,7 +2581,7 @@
         <v>69</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>70</v>
@@ -2612,15 +2609,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="36.33203125" customWidth="1" collapsed="1"/>
@@ -2672,13 +2669,13 @@
     </row>
     <row r="2" spans="1:13" s="26" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -2693,7 +2690,7 @@
         <v>69</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>72</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4332" windowWidth="14340" xWindow="396" yWindow="216"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="79">
   <si>
     <t>TC</t>
   </si>
@@ -260,6 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,125 +388,125 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -522,10 +523,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -683,7 +684,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -692,13 +693,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -708,7 +709,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -717,7 +718,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -726,7 +727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -736,12 +737,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -772,7 +773,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -791,7 +792,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -803,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -812,13 +813,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -846,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -860,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -875,13 +876,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -890,14 +891,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -944,7 +945,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
@@ -965,7 +966,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -986,7 +987,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1008,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1029,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1050,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1071,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -1091,7 +1092,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1112,7 +1113,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
@@ -1154,7 +1155,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1176,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>39</v>
       </c>
@@ -1196,7 +1197,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
@@ -1217,7 +1218,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>59</v>
       </c>
@@ -1238,7 +1239,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>57</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
@@ -1499,12 +1500,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1513,17 +1514,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="73.95" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="58.2" r="3" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>76</v>
       </c>
@@ -1636,7 +1637,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.6" r="4" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>76</v>
       </c>
@@ -1673,7 +1674,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="5" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>76</v>
       </c>
@@ -1710,7 +1711,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="6" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>76</v>
       </c>
@@ -1747,7 +1748,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="7" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>76</v>
       </c>
@@ -1784,7 +1785,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="8" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>76</v>
       </c>
@@ -1821,7 +1822,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="9" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>76</v>
       </c>
@@ -1858,7 +1859,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="10" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>76</v>
       </c>
@@ -1895,7 +1896,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="11" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>76</v>
       </c>
@@ -1932,7 +1933,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="12" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>76</v>
       </c>
@@ -1969,7 +1970,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="13" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>76</v>
       </c>
@@ -2006,7 +2007,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="14" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>76</v>
       </c>
@@ -2043,7 +2044,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="15" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>76</v>
       </c>
@@ -2080,7 +2081,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="16" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>76</v>
       </c>
@@ -2117,7 +2118,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="17" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>76</v>
       </c>
@@ -2154,7 +2155,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="18" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>76</v>
       </c>
@@ -2191,7 +2192,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="19" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>76</v>
       </c>
@@ -2228,7 +2229,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="20" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>76</v>
       </c>
@@ -2265,7 +2266,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="21" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>76</v>
       </c>
@@ -2302,7 +2303,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="22" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>76</v>
       </c>
@@ -2339,7 +2340,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="23" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>76</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="24" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>76</v>
       </c>
@@ -2413,7 +2414,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="25" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>76</v>
       </c>
@@ -2450,7 +2451,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="26" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>76</v>
       </c>
@@ -2487,7 +2488,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="27" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
@@ -2524,7 +2525,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="28" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>76</v>
       </c>
@@ -2561,7 +2562,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="29" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>76</v>
       </c>
@@ -2600,16 +2601,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A29" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A29"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2618,18 +2619,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>60</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="72" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -2707,8 +2708,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="2"/>
+    <workbookView activeTab="3" windowHeight="4332" windowWidth="14340" xWindow="396" yWindow="216"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="79">
   <si>
     <t>TC</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx</t>
+  </si>
+  <si>
+    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
@@ -257,6 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,125 +388,125 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -519,10 +523,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -680,7 +684,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -689,13 +693,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -705,7 +709,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -714,7 +718,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -723,7 +727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -733,12 +737,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -769,7 +773,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -788,7 +792,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -800,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -809,13 +813,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -843,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -857,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -872,29 +876,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -941,7 +945,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
@@ -962,7 +966,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -983,7 +987,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1008,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1029,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1050,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1071,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -1088,7 +1092,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1109,7 +1113,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1130,7 +1134,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
@@ -1151,7 +1155,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -1172,7 +1176,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>39</v>
       </c>
@@ -1193,7 +1197,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1218,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>59</v>
       </c>
@@ -1235,7 +1239,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>57</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
@@ -1496,31 +1500,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1561,15 +1565,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="73.95" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -1584,7 +1588,7 @@
         <v>69</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>70</v>
@@ -1596,15 +1600,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="58.2" r="3" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>25</v>
@@ -1619,7 +1623,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>70</v>
@@ -1633,15 +1637,15 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="48.6" r="4" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>25</v>
@@ -1656,7 +1660,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>70</v>
@@ -1670,15 +1674,15 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="60" r="5" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>25</v>
@@ -1693,7 +1697,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>70</v>
@@ -1707,15 +1711,15 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="6" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>25</v>
@@ -1730,7 +1734,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>70</v>
@@ -1744,15 +1748,15 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="7" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -1767,7 +1771,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>70</v>
@@ -1781,15 +1785,15 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="8" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>25</v>
@@ -1804,7 +1808,7 @@
         <v>69</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>70</v>
@@ -1818,15 +1822,15 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="9" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>25</v>
@@ -1841,7 +1845,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>70</v>
@@ -1855,15 +1859,15 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="10" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>25</v>
@@ -1878,7 +1882,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>70</v>
@@ -1892,15 +1896,15 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="11" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>25</v>
@@ -1915,7 +1919,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>70</v>
@@ -1929,15 +1933,15 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="12" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -1952,7 +1956,7 @@
         <v>69</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>70</v>
@@ -1966,15 +1970,15 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="13" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>25</v>
@@ -1989,7 +1993,7 @@
         <v>69</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>70</v>
@@ -2003,15 +2007,15 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="14" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>25</v>
@@ -2026,7 +2030,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>70</v>
@@ -2040,15 +2044,15 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="15" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>25</v>
@@ -2063,7 +2067,7 @@
         <v>69</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>70</v>
@@ -2077,15 +2081,15 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="16" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>25</v>
@@ -2100,7 +2104,7 @@
         <v>69</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>70</v>
@@ -2114,15 +2118,15 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="17" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -2137,7 +2141,7 @@
         <v>69</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>70</v>
@@ -2151,15 +2155,15 @@
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="18" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>25</v>
@@ -2174,7 +2178,7 @@
         <v>69</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>70</v>
@@ -2188,15 +2192,15 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="19" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>25</v>
@@ -2211,7 +2215,7 @@
         <v>69</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>70</v>
@@ -2225,15 +2229,15 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="20" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>25</v>
@@ -2248,7 +2252,7 @@
         <v>69</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>70</v>
@@ -2262,15 +2266,15 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="21" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>25</v>
@@ -2285,7 +2289,7 @@
         <v>69</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>70</v>
@@ -2299,15 +2303,15 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="22" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
@@ -2322,7 +2326,7 @@
         <v>69</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>70</v>
@@ -2336,15 +2340,15 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="23" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>25</v>
@@ -2359,7 +2363,7 @@
         <v>69</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>70</v>
@@ -2373,15 +2377,15 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="24" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>25</v>
@@ -2396,7 +2400,7 @@
         <v>69</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="25" t="s">
         <v>70</v>
@@ -2410,15 +2414,15 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="25" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>25</v>
@@ -2433,7 +2437,7 @@
         <v>69</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>70</v>
@@ -2447,15 +2451,15 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="26" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>25</v>
@@ -2470,7 +2474,7 @@
         <v>69</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I26" s="25" t="s">
         <v>70</v>
@@ -2484,15 +2488,15 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="27" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
@@ -2507,7 +2511,7 @@
         <v>69</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>70</v>
@@ -2521,15 +2525,15 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="28" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>25</v>
@@ -2544,7 +2548,7 @@
         <v>69</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>70</v>
@@ -2558,15 +2562,15 @@
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="57.6" r="29" s="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>25</v>
@@ -2581,7 +2585,7 @@
         <v>69</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>70</v>
@@ -2597,36 +2601,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A29" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A29"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>60</v>
       </c>
@@ -2667,15 +2671,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="72" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -2690,7 +2694,7 @@
         <v>69</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>72</v>
@@ -2704,8 +2708,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="79">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4332" windowWidth="14340" xWindow="396" yWindow="216"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="79">
   <si>
     <t>TC</t>
   </si>
@@ -259,8 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,125 +392,125 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -523,10 +527,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -561,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,9 +598,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,6 +650,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,7 +722,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -693,13 +731,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -709,7 +747,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -718,7 +756,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -727,7 +765,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -737,12 +775,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -773,7 +811,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -792,7 +830,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -804,22 +842,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -847,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -861,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -876,29 +914,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,7 +962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -945,7 +983,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row ht="15" r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
@@ -966,7 +1004,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row ht="15" r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -987,7 +1025,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row ht="15" r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1046,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row ht="15" r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1067,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row ht="15" r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1088,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row ht="15" r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1071,7 +1109,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row ht="15" r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -1092,7 +1130,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row ht="15" r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1113,7 +1151,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row ht="15" r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +1172,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row ht="15" r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
@@ -1155,7 +1193,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row ht="15" r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -1176,7 +1214,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row ht="15" r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>39</v>
       </c>
@@ -1197,7 +1235,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row ht="15" r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
@@ -1218,7 +1256,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row ht="15" r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>59</v>
       </c>
@@ -1239,7 +1277,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row ht="15" r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
@@ -1279,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
@@ -1299,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
@@ -1319,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>57</v>
       </c>
@@ -1359,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
@@ -1379,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -1399,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
@@ -1419,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
@@ -1439,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -1459,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -1479,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
@@ -1500,31 +1538,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1565,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="73.95" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -1600,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="58.2" r="3" s="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>76</v>
       </c>
@@ -1637,7 +1675,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="48.6" r="4" s="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>76</v>
       </c>
@@ -1674,7 +1712,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row customFormat="1" ht="60" r="5" s="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>76</v>
       </c>
@@ -1711,7 +1749,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="6" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>76</v>
       </c>
@@ -1748,7 +1786,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="7" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>76</v>
       </c>
@@ -1785,7 +1823,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="8" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>76</v>
       </c>
@@ -1822,7 +1860,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="9" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>76</v>
       </c>
@@ -1859,7 +1897,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="10" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>76</v>
       </c>
@@ -1896,7 +1934,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="11" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>76</v>
       </c>
@@ -1933,7 +1971,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="12" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>76</v>
       </c>
@@ -1970,7 +2008,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="13" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>76</v>
       </c>
@@ -2007,7 +2045,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="14" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>76</v>
       </c>
@@ -2044,7 +2082,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="15" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>76</v>
       </c>
@@ -2081,7 +2119,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="16" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>76</v>
       </c>
@@ -2118,7 +2156,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="17" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>76</v>
       </c>
@@ -2155,7 +2193,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="18" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>76</v>
       </c>
@@ -2192,7 +2230,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="19" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>76</v>
       </c>
@@ -2229,7 +2267,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="20" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>76</v>
       </c>
@@ -2266,7 +2304,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="21" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>76</v>
       </c>
@@ -2303,7 +2341,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="22" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>76</v>
       </c>
@@ -2340,7 +2378,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="23" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>76</v>
       </c>
@@ -2377,7 +2415,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="24" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>76</v>
       </c>
@@ -2414,7 +2452,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="25" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>76</v>
       </c>
@@ -2451,7 +2489,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="26" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>76</v>
       </c>
@@ -2488,7 +2526,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="27" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
@@ -2525,7 +2563,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="28" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>76</v>
       </c>
@@ -2562,7 +2600,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
     </row>
-    <row customFormat="1" ht="57.6" r="29" s="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>76</v>
       </c>
@@ -2601,36 +2639,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A29"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A29" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="1" max="1" width="52.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>60</v>
       </c>
@@ -2671,7 +2709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="72" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -2708,8 +2746,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="79">
   <si>
     <t>TC</t>
   </si>
@@ -265,6 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,125 +393,125 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -527,10 +528,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -565,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,7 +618,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,7 +723,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -731,13 +732,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -747,7 +748,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -756,7 +757,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -765,7 +766,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -775,12 +776,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -811,7 +812,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -830,7 +831,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -842,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -851,10 +852,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -914,13 +915,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -929,11 +930,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -962,7 +963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -1538,12 +1539,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1552,17 +1553,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="73.900000000000006" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="58.15" r="3" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>76</v>
       </c>
@@ -1675,7 +1676,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.6" r="4" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>76</v>
       </c>
@@ -1712,7 +1713,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="5" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>76</v>
       </c>
@@ -1749,7 +1750,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="6" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>76</v>
       </c>
@@ -1786,7 +1787,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="7" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>76</v>
       </c>
@@ -1823,7 +1824,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="8" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>76</v>
       </c>
@@ -1860,7 +1861,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="9" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>76</v>
       </c>
@@ -1897,7 +1898,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="10" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>76</v>
       </c>
@@ -1934,7 +1935,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="11" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>76</v>
       </c>
@@ -1971,7 +1972,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="12" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>76</v>
       </c>
@@ -2008,7 +2009,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="13" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +2046,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="14" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>76</v>
       </c>
@@ -2082,7 +2083,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="15" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>76</v>
       </c>
@@ -2119,7 +2120,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="16" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>76</v>
       </c>
@@ -2156,7 +2157,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="17" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>76</v>
       </c>
@@ -2193,7 +2194,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="18" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>76</v>
       </c>
@@ -2230,7 +2231,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="19" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>76</v>
       </c>
@@ -2267,7 +2268,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="20" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>76</v>
       </c>
@@ -2304,7 +2305,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="21" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>76</v>
       </c>
@@ -2341,7 +2342,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="22" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>76</v>
       </c>
@@ -2378,7 +2379,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="23" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>76</v>
       </c>
@@ -2415,7 +2416,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="24" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>76</v>
       </c>
@@ -2452,7 +2453,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="25" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>76</v>
       </c>
@@ -2489,7 +2490,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="26" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>76</v>
       </c>
@@ -2526,7 +2527,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="27" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
@@ -2563,7 +2564,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="28" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>76</v>
       </c>
@@ -2600,7 +2601,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="29" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>76</v>
       </c>
@@ -2639,16 +2640,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A29" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A29"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
@@ -2657,18 +2658,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>60</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="72" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
@@ -2746,8 +2747,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>